--- a/ACIP meeting discussion analysis.xlsx
+++ b/ACIP meeting discussion analysis.xlsx
@@ -441,14 +441,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>June 2019 ACIP Meeting - Votes.docx</t>
+          <t>June 2019 ACIP Meeting - Combination Vaccines; Public Comment.docx</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>229</v>
+        <v>42</v>
       </c>
       <c r="C2" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
